--- a/relatorios/msec_06nov2025.xlsx
+++ b/relatorios/msec_06nov2025.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="modelo" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="LTN" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NTN-C" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LFT" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NTN-B" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NTN-F" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -16,11 +20,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -52,6 +57,19 @@
       <b val="1"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Times New Roman"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="10"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -67,7 +85,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -131,6 +149,30 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -142,7 +184,7 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -173,40 +215,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,153 +434,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.53" customWidth="1" style="10" min="1" max="1"/>
-    <col width="11.53" customWidth="1" style="11" min="2" max="3"/>
-    <col width="11.53" customWidth="1" style="12" min="4" max="6"/>
-    <col width="11.53" customWidth="1" style="13" min="7" max="7"/>
-    <col width="11.53" customWidth="1" style="12" min="8" max="11"/>
-    <col hidden="1" width="11.53" customWidth="1" style="14" min="12" max="16384"/>
+    <col width="15" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15" customWidth="1" style="10" min="2" max="2"/>
+    <col width="15" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15" customWidth="1" style="10" min="5" max="5"/>
+    <col width="15" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15" customWidth="1" style="10" min="7" max="7"/>
+    <col width="15" customWidth="1" style="10" min="8" max="8"/>
+    <col width="15" customWidth="1" style="10" min="9" max="9"/>
+    <col width="15" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15" customWidth="1" style="10" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="15">
-      <c r="A1" s="16" t="inlineStr">
+    <row r="1" ht="12.8" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
         <is>
           <t>Títulos Públicos Federais</t>
         </is>
       </c>
-      <c r="B1" s="17" t="n"/>
-      <c r="C1" s="17" t="n"/>
-      <c r="D1" s="17" t="n"/>
-      <c r="E1" s="17" t="n"/>
-      <c r="F1" s="17" t="n"/>
-      <c r="G1" s="17" t="n"/>
-      <c r="H1" s="17" t="n"/>
-      <c r="I1" s="17" t="n"/>
-      <c r="J1" s="18" t="n"/>
-      <c r="K1" s="19" t="n"/>
-    </row>
-    <row r="2" ht="12.8" customHeight="1" s="15">
-      <c r="A2" s="20" t="inlineStr">
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="14" t="inlineStr">
+        <is>
+          <t>06nov2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="15" t="inlineStr">
         <is>
           <t>  </t>
         </is>
       </c>
-      <c r="B2" s="17" t="n"/>
-      <c r="C2" s="17" t="n"/>
-      <c r="D2" s="17" t="n"/>
-      <c r="E2" s="17" t="n"/>
-      <c r="F2" s="17" t="n"/>
-      <c r="G2" s="17" t="n"/>
-      <c r="H2" s="17" t="n"/>
-      <c r="I2" s="17" t="n"/>
-      <c r="J2" s="17" t="n"/>
-      <c r="K2" s="18" t="n"/>
-    </row>
-    <row r="3" ht="12.8" customHeight="1" s="15">
-      <c r="A3" s="21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B3" s="18" t="n"/>
-      <c r="C3" s="21" t="inlineStr">
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Papel PREFIXADO</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="16" t="inlineStr">
         <is>
           <t>LTN - Taxa (% a.a.)/252</t>
         </is>
       </c>
-      <c r="D3" s="17" t="n"/>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="17" t="n"/>
-      <c r="G3" s="17" t="n"/>
-      <c r="H3" s="17" t="n"/>
-      <c r="I3" s="17" t="n"/>
-      <c r="J3" s="17" t="n"/>
-      <c r="K3" s="18" t="n"/>
-    </row>
-    <row r="4" ht="12.65" customHeight="1" s="15">
-      <c r="A4" s="22" t="inlineStr">
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="12.65" customHeight="1" s="10">
+      <c r="A4" s="17" t="inlineStr">
         <is>
           <t>Código SELIC</t>
         </is>
       </c>
-      <c r="B4" s="22" t="inlineStr">
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>Data Base/Emissão</t>
         </is>
       </c>
-      <c r="C4" s="22" t="inlineStr">
+      <c r="C4" s="17" t="inlineStr">
         <is>
           <t>Data de Vencimento</t>
         </is>
       </c>
-      <c r="D4" s="22" t="inlineStr">
+      <c r="D4" s="17" t="inlineStr">
         <is>
           <t>Tx. Compra</t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="17" t="inlineStr">
         <is>
           <t>Tx. Venda</t>
         </is>
       </c>
-      <c r="F4" s="22" t="inlineStr">
+      <c r="F4" s="17" t="inlineStr">
         <is>
           <t>Tx. Indicativas</t>
         </is>
       </c>
-      <c r="G4" s="22" t="inlineStr">
+      <c r="G4" s="17" t="inlineStr">
         <is>
           <t>PU</t>
         </is>
       </c>
-      <c r="H4" s="22" t="inlineStr">
+      <c r="H4" s="17" t="inlineStr">
         <is>
           <t>Intervalo Indicativo</t>
         </is>
       </c>
-      <c r="I4" s="17" t="n"/>
-      <c r="J4" s="17" t="n"/>
-      <c r="K4" s="18" t="n"/>
-    </row>
-    <row r="5" ht="23.85" customHeight="1" s="15">
-      <c r="A5" s="23" t="n"/>
-      <c r="B5" s="23" t="n"/>
-      <c r="C5" s="23" t="n"/>
-      <c r="D5" s="23" t="n"/>
-      <c r="E5" s="23" t="n"/>
-      <c r="F5" s="23" t="n"/>
-      <c r="G5" s="23" t="n"/>
-      <c r="H5" s="22" t="inlineStr">
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
         <is>
           <t>Mínimo (D0)</t>
         </is>
       </c>
-      <c r="I5" s="22" t="inlineStr">
+      <c r="I5" s="17" t="inlineStr">
         <is>
           <t>Máximo (D0)</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
+      <c r="J5" s="17" t="inlineStr">
         <is>
           <t>Mínimo (D+1)</t>
         </is>
       </c>
-      <c r="K5" s="22" t="inlineStr">
+      <c r="K5" s="17" t="inlineStr">
         <is>
           <t>Máximo (D+1)</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>06/02/2020</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2026</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>14.8962</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>14.8757</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>14.8887</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>979.288294</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>14.8127</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>15.043</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>14.8182</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>15.0559</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>01/04/2026</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>14.7412</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>14.725</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>14.7329</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>947.438773</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>14.5964</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>14.9139</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>14.6317</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>14.9454</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>06/01/2023</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2026</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>14.5214</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>14.5083</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>14.5161</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>917.5387469999999</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>14.2629</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>14.7965</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>14.3128</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>14.8429</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>01/10/2026</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>14.1572</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>14.1437</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>14.1497</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>888.5527939999999</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>13.7927</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>14.5053</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>13.8282</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>14.5392</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>01/04/2027</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>13.6536</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>13.6418</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>13.6476</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>838.48325</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>13.1814</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>14.0399</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>13.2141</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>14.0714</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>07/07/2023</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2027</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>13.4517</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>13.4385</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>13.445</v>
+      </c>
+      <c r="G11" s="22" t="n">
+        <v>814.451241</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>12.9593</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <v>13.8776</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>12.9886</v>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>13.9061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>01/10/2027</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>13.312</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>13.3031</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>13.3067</v>
+      </c>
+      <c r="G12" s="22" t="n">
+        <v>790.191796</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>12.8184</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>13.7759</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>12.8384</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>13.7955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2028</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>13.1701</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>13.1496</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>13.161</v>
+      </c>
+      <c r="G13" s="22" t="n">
+        <v>768.000748</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>12.6637</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>13.6472</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>12.6851</v>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>13.6682</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>05/07/2024</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2028</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>13.1065</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>13.082</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>13.0945</v>
+      </c>
+      <c r="G14" s="22" t="n">
+        <v>723.785815</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>12.5878</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>13.6037</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>12.6043</v>
+      </c>
+      <c r="K14" s="21" t="n">
+        <v>13.6201</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>11/02/2022</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2029</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>13.1832</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>13.1725</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>13.1794</v>
+      </c>
+      <c r="G15" s="22" t="n">
+        <v>679.668212</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>12.6717</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>13.6868</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>12.6921</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>13.7073</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B16" s="20" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2029</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>13.2958</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>13.2855</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>13.291</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>637.227268</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>12.7941</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>13.7882</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>12.817</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <v>13.8113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2030</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>13.3704</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>13.3585</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>13.364</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>597.396577</v>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>12.8834</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>13.8494</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>12.9094</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <v>13.8754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>100000</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>10/01/2025</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2032</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>13.6886</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>13.6785</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>13.6845</v>
+      </c>
+      <c r="G18" s="22" t="n">
+        <v>456.903486</v>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>13.2005</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>14.1923</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>13.2225</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <v>14.2143</v>
       </c>
     </row>
   </sheetData>
@@ -559,16 +1114,2147 @@
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15" customWidth="1" style="10" min="2" max="2"/>
+    <col width="15" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15" customWidth="1" style="10" min="5" max="5"/>
+    <col width="15" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15" customWidth="1" style="10" min="7" max="7"/>
+    <col width="15" customWidth="1" style="10" min="8" max="8"/>
+    <col width="15" customWidth="1" style="10" min="9" max="9"/>
+    <col width="15" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15" customWidth="1" style="10" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Títulos Públicos Federais</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="14" t="inlineStr">
+        <is>
+          <t>06nov2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Papel IGP-M</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>NTN-C - Taxa (% a.a.)/252</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="12.65" customHeight="1" s="10">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>Código SELIC</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Data Base/Emissão</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Data de Vencimento</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Compra</t>
+        </is>
+      </c>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Venda</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Indicativas</t>
+        </is>
+      </c>
+      <c r="G4" s="17" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Intervalo Indicativo</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D0)</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D0)</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D+1)</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n">
+        <v>770100</v>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2031</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>7.8414</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>7.9466</v>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>7.754,036348</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>7.4473</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>8.286899999999999</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>8.3354</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15" customWidth="1" style="10" min="2" max="2"/>
+    <col width="15" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15" customWidth="1" style="10" min="5" max="5"/>
+    <col width="15" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15" customWidth="1" style="10" min="7" max="7"/>
+    <col width="15" customWidth="1" style="10" min="8" max="8"/>
+    <col width="15" customWidth="1" style="10" min="9" max="9"/>
+    <col width="15" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15" customWidth="1" style="10" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Títulos Públicos Federais</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="14" t="inlineStr">
+        <is>
+          <t>06nov2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Papel POS-SELIC</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>LFT - Rentabilidade (% a.a.)/252</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="12.65" customHeight="1" s="10">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>Código SELIC</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Data Base/Emissão</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Data de Vencimento</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Compra</t>
+        </is>
+      </c>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Venda</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Indicativas</t>
+        </is>
+      </c>
+      <c r="G4" s="17" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Intervalo Indicativo</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D0)</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D0)</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D+1)</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2026</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>-0.0005</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>17.720,667500</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>-0.0384</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>-0.0379</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>0.0304</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2026</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>-0.0038</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>-0.0014</v>
+      </c>
+      <c r="G7" s="20" t="inlineStr">
+        <is>
+          <t>17.720,862427</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>-0.0165</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>0.0277</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>-0.0162</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>0.0281</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2027</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>0.0231</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>0.0218</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t>17.715,563947</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>0.0324</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2027</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>0.0371</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>0.0358</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>0.0365</v>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t>17.709,007300</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>0.0209</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>0.0488</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>0.0489</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2028</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>0.0491</v>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t>17.700,714028</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2028</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>0.0626</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>0.0613</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>0.0619</v>
+      </c>
+      <c r="G11" s="20" t="inlineStr">
+        <is>
+          <t>17.689,957583</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>0.0538</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <v>0.0751</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>0.0543</v>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>0.07389999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2029</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>0.0762</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>0.0752</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>0.0757</v>
+      </c>
+      <c r="G12" s="20" t="inlineStr">
+        <is>
+          <t>17.676,755685</t>
+        </is>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>0.0667</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>0.0858</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>0.0664</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>0.08550000000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2029</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>0.0866</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t>17.663,022168</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>0.0761</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>0.0755</v>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2030</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>0.09569999999999999</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>0.09660000000000001</v>
+      </c>
+      <c r="G14" s="20" t="inlineStr">
+        <is>
+          <t>17.647,676070</t>
+        </is>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>0.07770000000000001</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>0.07820000000000001</v>
+      </c>
+      <c r="K14" s="21" t="n">
+        <v>0.1082</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>01/06/2030</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>0.1003</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>17.641,101702</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>0.08119999999999999</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>0.1112</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>0.08110000000000001</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>0.1111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B16" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2030</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>0.09909999999999999</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>0.1002</v>
+      </c>
+      <c r="G16" s="20" t="inlineStr">
+        <is>
+          <t>17.636,139916</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>0.1119</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0.0854</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <v>0.1117</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>01/12/2030</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>0.1008</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>0.1018</v>
+      </c>
+      <c r="G17" s="20" t="inlineStr">
+        <is>
+          <t>17.630,309816</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>0.1134</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.0877</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <v>0.1133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>01/03/2031</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G18" s="20" t="inlineStr">
+        <is>
+          <t>17.625,773325</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>0.1154</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B19" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C19" s="20" t="inlineStr">
+        <is>
+          <t>01/06/2031</t>
+        </is>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="E19" s="21" t="n">
+        <v>0.1014</v>
+      </c>
+      <c r="F19" s="21" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="G19" s="20" t="inlineStr">
+        <is>
+          <t>17.621,360879</t>
+        </is>
+      </c>
+      <c r="H19" s="21" t="n">
+        <v>0.08840000000000001</v>
+      </c>
+      <c r="I19" s="21" t="n">
+        <v>0.1171</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="K19" s="21" t="n">
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B20" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C20" s="20" t="inlineStr">
+        <is>
+          <t>01/09/2031</t>
+        </is>
+      </c>
+      <c r="D20" s="21" t="n">
+        <v>0.1039</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>0.1031</v>
+      </c>
+      <c r="G20" s="20" t="inlineStr">
+        <is>
+          <t>17.615,690265</t>
+        </is>
+      </c>
+      <c r="H20" s="21" t="n">
+        <v>0.0888</v>
+      </c>
+      <c r="I20" s="21" t="n">
+        <v>0.1166</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="K20" s="21" t="n">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="19" t="n">
+        <v>210100</v>
+      </c>
+      <c r="B21" s="20" t="inlineStr">
+        <is>
+          <t>01/07/2000</t>
+        </is>
+      </c>
+      <c r="C21" s="20" t="inlineStr">
+        <is>
+          <t>01/12/2031</t>
+        </is>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>0.1056</v>
+      </c>
+      <c r="E21" s="21" t="n">
+        <v>0.1043</v>
+      </c>
+      <c r="F21" s="21" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="G21" s="20" t="inlineStr">
+        <is>
+          <t>17.609,275384</t>
+        </is>
+      </c>
+      <c r="H21" s="21" t="n">
+        <v>0.0888</v>
+      </c>
+      <c r="I21" s="21" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>0.08890000000000001</v>
+      </c>
+      <c r="K21" s="21" t="n">
+        <v>0.1149</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15" customWidth="1" style="10" min="2" max="2"/>
+    <col width="15" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15" customWidth="1" style="10" min="5" max="5"/>
+    <col width="15" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15" customWidth="1" style="10" min="7" max="7"/>
+    <col width="15" customWidth="1" style="10" min="8" max="8"/>
+    <col width="15" customWidth="1" style="10" min="9" max="9"/>
+    <col width="15" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15" customWidth="1" style="10" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Títulos Públicos Federais</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="14" t="inlineStr">
+        <is>
+          <t>06nov2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Papel IPCA</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>NTN-B - Taxa (% a.a.)/252</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="12.65" customHeight="1" s="10">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>Código SELIC</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Data Base/Emissão</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Data de Vencimento</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Compra</t>
+        </is>
+      </c>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Venda</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Indicativas</t>
+        </is>
+      </c>
+      <c r="G4" s="17" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Intervalo Indicativo</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D0)</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D0)</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D+1)</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2026</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>9.9343</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>9.9475</v>
+      </c>
+      <c r="G6" s="20" t="inlineStr">
+        <is>
+          <t>4.499,749596</t>
+        </is>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>9.570600000000001</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>10.3755</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>9.610900000000001</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>10.4181</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2027</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>8.7753</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>8.7464</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>8.7616</v>
+      </c>
+      <c r="G7" s="20" t="inlineStr">
+        <is>
+          <t>4.529,077479</t>
+        </is>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>8.395099999999999</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>8.9674</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>8.447100000000001</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>9.0192</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2028</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>8.2812</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>8.2547</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>8.2682</v>
+      </c>
+      <c r="G8" s="20" t="inlineStr">
+        <is>
+          <t>4.386,649269</t>
+        </is>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>7.8887</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>8.575699999999999</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>7.9213</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>8.6081</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2029</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>8.1066</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>8.081200000000001</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>8.0977</v>
+      </c>
+      <c r="G9" s="20" t="inlineStr">
+        <is>
+          <t>4.424,595754</t>
+        </is>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>7.7636</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>8.3886</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>7.7584</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>8.383800000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2030</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>7.9734</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G10" s="20" t="inlineStr">
+        <is>
+          <t>4.297,356175</t>
+        </is>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>7.6729</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>8.189399999999999</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>7.6541</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>8.1707</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B11" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C11" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2032</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>7.832</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>7.8082</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>7.8222</v>
+      </c>
+      <c r="G11" s="20" t="inlineStr">
+        <is>
+          <t>4.217,329561</t>
+        </is>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>7.5933</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <v>8.0625</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>7.5652</v>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>8.034599999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B12" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C12" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2033</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>7.7596</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>7.7356</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G12" s="20" t="inlineStr">
+        <is>
+          <t>4.269,255610</t>
+        </is>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>7.5484</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>8.001300000000001</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>7.5084</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>7.9614</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B13" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C13" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2035</t>
+        </is>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>7.5735</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>7.5517</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>7.5608</v>
+      </c>
+      <c r="G13" s="20" t="inlineStr">
+        <is>
+          <t>4.243,933620</t>
+        </is>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>7.4117</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>7.828</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>7.3525</v>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>7.7689</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B14" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C14" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2040</t>
+        </is>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>7.3951</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>7.3701</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>7.3839</v>
+      </c>
+      <c r="G14" s="20" t="inlineStr">
+        <is>
+          <t>4.092,832057</t>
+        </is>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>7.2821</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>7.6175</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>7.2259</v>
+      </c>
+      <c r="K14" s="21" t="n">
+        <v>7.5611</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B15" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C15" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2045</t>
+        </is>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>7.282</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>7.2578</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>7.268</v>
+      </c>
+      <c r="G15" s="20" t="inlineStr">
+        <is>
+          <t>4.128,041030</t>
+        </is>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>7.1657</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>7.4788</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>7.1203</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>7.4334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B16" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C16" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2050</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>7.2021</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>7.1758</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="G16" s="20" t="inlineStr">
+        <is>
+          <t>4.035,161795</t>
+        </is>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>7.0791</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>7.3888</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>7.0491</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <v>7.3588</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B17" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C17" s="20" t="inlineStr">
+        <is>
+          <t>15/05/2055</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>7.1964</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>7.1693</v>
+      </c>
+      <c r="F17" s="21" t="n">
+        <v>7.182</v>
+      </c>
+      <c r="G17" s="20" t="inlineStr">
+        <is>
+          <t>4.071,328897</t>
+        </is>
+      </c>
+      <c r="H17" s="21" t="n">
+        <v>7.0705</v>
+      </c>
+      <c r="I17" s="21" t="n">
+        <v>7.381</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>7.0423</v>
+      </c>
+      <c r="K17" s="21" t="n">
+        <v>7.3528</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n">
+        <v>760199</v>
+      </c>
+      <c r="B18" s="20" t="inlineStr">
+        <is>
+          <t>15/07/2000</t>
+        </is>
+      </c>
+      <c r="C18" s="20" t="inlineStr">
+        <is>
+          <t>15/08/2060</t>
+        </is>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>7.2057</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>7.1776</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>7.1912</v>
+      </c>
+      <c r="G18" s="20" t="inlineStr">
+        <is>
+          <t>3.969,310933</t>
+        </is>
+      </c>
+      <c r="H18" s="21" t="n">
+        <v>7.0809</v>
+      </c>
+      <c r="I18" s="21" t="n">
+        <v>7.3925</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>7.0522</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <v>7.3637</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15" customWidth="1" style="10" min="2" max="2"/>
+    <col width="15" customWidth="1" style="10" min="3" max="3"/>
+    <col width="15" customWidth="1" style="10" min="4" max="4"/>
+    <col width="15" customWidth="1" style="10" min="5" max="5"/>
+    <col width="15" customWidth="1" style="10" min="6" max="6"/>
+    <col width="15" customWidth="1" style="10" min="7" max="7"/>
+    <col width="15" customWidth="1" style="10" min="8" max="8"/>
+    <col width="15" customWidth="1" style="10" min="9" max="9"/>
+    <col width="15" customWidth="1" style="10" min="10" max="10"/>
+    <col width="15" customWidth="1" style="10" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="10">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>Títulos Públicos Federais</t>
+        </is>
+      </c>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="14" t="inlineStr">
+        <is>
+          <t>06nov2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="10">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>  </t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="12" t="n"/>
+      <c r="D2" s="12" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="12" t="n"/>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="12" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="n"/>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="10">
+      <c r="A3" s="16" t="inlineStr">
+        <is>
+          <t>Papel PREFIXADO</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>NTN-F - Taxa (% a.a.)/252</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="n"/>
+      <c r="E3" s="12" t="n"/>
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="n"/>
+      <c r="H3" s="12" t="n"/>
+      <c r="I3" s="12" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="n"/>
+    </row>
+    <row r="4" ht="12.65" customHeight="1" s="10">
+      <c r="A4" s="17" t="inlineStr">
+        <is>
+          <t>Código SELIC</t>
+        </is>
+      </c>
+      <c r="B4" s="17" t="inlineStr">
+        <is>
+          <t>Data Base/Emissão</t>
+        </is>
+      </c>
+      <c r="C4" s="17" t="inlineStr">
+        <is>
+          <t>Data de Vencimento</t>
+        </is>
+      </c>
+      <c r="D4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Compra</t>
+        </is>
+      </c>
+      <c r="E4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Venda</t>
+        </is>
+      </c>
+      <c r="F4" s="17" t="inlineStr">
+        <is>
+          <t>Tx. Indicativas</t>
+        </is>
+      </c>
+      <c r="G4" s="17" t="inlineStr">
+        <is>
+          <t>PU</t>
+        </is>
+      </c>
+      <c r="H4" s="17" t="inlineStr">
+        <is>
+          <t>Intervalo Indicativo</t>
+        </is>
+      </c>
+      <c r="I4" s="12" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="18" t="n"/>
+      <c r="B5" s="18" t="n"/>
+      <c r="C5" s="18" t="n"/>
+      <c r="D5" s="18" t="n"/>
+      <c r="E5" s="18" t="n"/>
+      <c r="F5" s="18" t="n"/>
+      <c r="G5" s="18" t="n"/>
+      <c r="H5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D0)</t>
+        </is>
+      </c>
+      <c r="I5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D0)</t>
+        </is>
+      </c>
+      <c r="J5" s="17" t="inlineStr">
+        <is>
+          <t>Mínimo (D+1)</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>Máximo (D+1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="n">
+        <v>950199</v>
+      </c>
+      <c r="B6" s="20" t="inlineStr">
+        <is>
+          <t>15/01/2016</t>
+        </is>
+      </c>
+      <c r="C6" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2027</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>13.8594</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>13.839</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>13.8489</v>
+      </c>
+      <c r="G6" s="22" t="n">
+        <v>997.596193</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>13.4218</v>
+      </c>
+      <c r="I6" s="21" t="n">
+        <v>14.1887</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>13.4601</v>
+      </c>
+      <c r="K6" s="21" t="n">
+        <v>14.2265</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="n">
+        <v>950199</v>
+      </c>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>05/01/2018</t>
+        </is>
+      </c>
+      <c r="C7" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2029</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>13.2517</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>13.2299</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>13.2387</v>
+      </c>
+      <c r="G7" s="22" t="n">
+        <v>959.55927</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>12.7414</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>13.738</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>12.7598</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>13.7565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="n">
+        <v>950199</v>
+      </c>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>10/01/2020</t>
+        </is>
+      </c>
+      <c r="C8" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2031</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>13.6113</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>13.6012</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>13.6061</v>
+      </c>
+      <c r="G8" s="22" t="n">
+        <v>913.188538</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>13.1348</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>14.0838</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>13.1642</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>14.1131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="n">
+        <v>950199</v>
+      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>07/01/2022</t>
+        </is>
+      </c>
+      <c r="C9" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2033</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>13.7842</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>13.759</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>13.7704</v>
+      </c>
+      <c r="G9" s="22" t="n">
+        <v>876.641854</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>13.2919</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>14.2543</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>13.3252</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>14.2876</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="n">
+        <v>950199</v>
+      </c>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>05/01/2024</t>
+        </is>
+      </c>
+      <c r="C10" s="20" t="inlineStr">
+        <is>
+          <t>01/01/2035</t>
+        </is>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>13.8357</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>13.8249</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>13.8308</v>
+      </c>
+      <c r="G10" s="22" t="n">
+        <v>850.656243</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>13.3632</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>14.3205</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>13.3886</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>14.3457</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>